--- a/biology/Zoologie/Choeradodinae/Choeradodinae.xlsx
+++ b/biology/Zoologie/Choeradodinae/Choeradodinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Choeradodinae sont une sous-famille d'insectes de la famille des Mantidae (mantes).    
 </t>
@@ -511,9 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Choeradodinae a été décrite par l'entomologiste britannique William Forsell Kirby  en 1904[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Choeradodinae a été décrite par l'entomologiste britannique William Forsell Kirby  en 1904.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kirby, W. F. 1904. A synonymic catalogue of Orthoptera. Volume 1, 501 pages. (BHL - p. 219)</t>
         </is>
@@ -572,13 +588,15 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des genres
-Asiadodis  Roy, 2004[2]
-Choeradodis Audinet-Serville, 1831[1],[2]
+Asiadodis  Roy, 2004
+Choeradodis Audinet-Serville, 1831,
 † Eobruneria Cockerell, 1913 (?)
-† Prochaeradodis Piton, 1940 (?)[3]</t>
+† Prochaeradodis Piton, 1940 (?)</t>
         </is>
       </c>
     </row>
